--- a/test/upload.xlsx
+++ b/test/upload.xlsx
@@ -426,22 +426,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="115" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="90" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,7 +476,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Kandidat</t>
+          <t>Objekte-Link</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -482,7 +486,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Pfad</t>
+          <t>Fotograf*in</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>absoluter Pfad</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>nach Bewegen der Datei</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Asset hochgeladen?</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Standardbild</t>
         </is>
       </c>
     </row>
@@ -514,7 +538,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>neue Objekte erzeugen?</t>
+          <t>automat. Vorschlag für Objekte-DS</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -524,71 +548,27 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>aus Datei</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
           <t>aus Verzeichnis</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>VII a 123 a.gif</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>VII a 123 a</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>adir\VII a 123 a.gif</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>VIII C 1234.tif</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>VIII C 1234</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1518649</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>adir\VIII C 1234.tif</t>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>wenn Upload erfolgreich</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>wenn Upload erfolgreich</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Standardbild setzen, wenn noch keines existiert</t>
         </is>
       </c>
     </row>
@@ -603,16 +583,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>templateID</t>
         </is>
@@ -624,26 +609,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>reference</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>verlinktes Modul</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Object</t>
+          <t>Objekte</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OrgUnit(optional)</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>OrgUnit (optional)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NGAlteNationalgalerie</t>
+          <t>EMMusikethnologie</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>OrgUnits sind RIA-Bereiche in interner Schreibweise (ohne Leerzeichen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Zielverzeichnis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Verzeichnis für hochgeladene Dateien. UNC-Pfade brauchen in Python zweifachen Backslash.</t>
         </is>
       </c>
     </row>
